--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Pf4</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pf4</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H2">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I2">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J2">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7050016666666666</v>
+        <v>1.414593</v>
       </c>
       <c r="N2">
-        <v>2.115005</v>
+        <v>4.243779</v>
       </c>
       <c r="O2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q2">
-        <v>18.82722695870556</v>
+        <v>0.662296882077</v>
       </c>
       <c r="R2">
-        <v>169.44504262835</v>
+        <v>5.960671938693</v>
       </c>
       <c r="S2">
-        <v>0.05829707738411167</v>
+        <v>0.001385527546920067</v>
       </c>
       <c r="T2">
-        <v>0.05829707738411166</v>
+        <v>0.001385527546920068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H3">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I3">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J3">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.012461999999999</v>
       </c>
       <c r="O3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q3">
-        <v>62.42312127550444</v>
+        <v>1.094385857106</v>
       </c>
       <c r="R3">
-        <v>561.8080914795399</v>
+        <v>9.849472713954</v>
       </c>
       <c r="S3">
-        <v>0.1932884507919095</v>
+        <v>0.002289459293881748</v>
       </c>
       <c r="T3">
-        <v>0.1932884507919094</v>
+        <v>0.002289459293881748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H4">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I4">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J4">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2112013333333334</v>
+        <v>0.314161</v>
       </c>
       <c r="N4">
-        <v>0.6336040000000001</v>
+        <v>0.942483</v>
       </c>
       <c r="O4">
-        <v>0.0647695589083904</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P4">
-        <v>0.06476955890839041</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q4">
-        <v>5.640178774964445</v>
+        <v>0.147086724429</v>
       </c>
       <c r="R4">
-        <v>50.76160897468</v>
+        <v>1.323780519861</v>
       </c>
       <c r="S4">
-        <v>0.01746438491581944</v>
+        <v>0.0003077059759718557</v>
       </c>
       <c r="T4">
-        <v>0.01746438491581944</v>
+        <v>0.0003077059759718557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>26.70522333333333</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H5">
-        <v>80.11566999999999</v>
+        <v>351.263104</v>
       </c>
       <c r="I5">
-        <v>0.2696387810903721</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J5">
-        <v>0.269638781090372</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.007121333333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N5">
-        <v>0.021364</v>
+        <v>4.243779</v>
       </c>
       <c r="O5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q5">
-        <v>0.1901767970977778</v>
+        <v>165.631442692224</v>
       </c>
       <c r="R5">
-        <v>1.71159117388</v>
+        <v>1490.682984230016</v>
       </c>
       <c r="S5">
-        <v>0.000588867998531522</v>
+        <v>0.3465015957292521</v>
       </c>
       <c r="T5">
-        <v>0.0005888679985315219</v>
+        <v>0.3465015957292522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.03526433333333334</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H6">
-        <v>0.105793</v>
+        <v>351.263104</v>
       </c>
       <c r="I6">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J6">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7050016666666666</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N6">
-        <v>2.115005</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q6">
-        <v>0.02486141377388889</v>
+        <v>273.6910187557831</v>
       </c>
       <c r="R6">
-        <v>0.223752723965</v>
+        <v>2463.219168802048</v>
       </c>
       <c r="S6">
-        <v>7.69814782513499E-05</v>
+        <v>0.5725626317936779</v>
       </c>
       <c r="T6">
-        <v>7.698147825134991E-05</v>
+        <v>0.5725626317936779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.03526433333333334</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H7">
-        <v>0.105793</v>
+        <v>351.263104</v>
       </c>
       <c r="I7">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J7">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,400 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.337487333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N7">
-        <v>7.012461999999999</v>
+        <v>0.942483</v>
       </c>
       <c r="O7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q7">
-        <v>0.08242993248511112</v>
+        <v>36.78438933858133</v>
       </c>
       <c r="R7">
-        <v>0.741869392366</v>
+        <v>331.059504047232</v>
       </c>
       <c r="S7">
-        <v>0.0002552380211590127</v>
+        <v>0.07695307966029633</v>
       </c>
       <c r="T7">
-        <v>0.0002552380211590127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03526433333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.105793</v>
-      </c>
-      <c r="I8">
-        <v>0.000356058877968489</v>
-      </c>
-      <c r="J8">
-        <v>0.000356058877968489</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.2112013333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.6336040000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.0647695589083904</v>
-      </c>
-      <c r="P8">
-        <v>0.06476955890839041</v>
-      </c>
-      <c r="Q8">
-        <v>0.007447874219111112</v>
-      </c>
-      <c r="R8">
-        <v>0.06703086797200002</v>
-      </c>
-      <c r="S8">
-        <v>2.306177647143544E-05</v>
-      </c>
-      <c r="T8">
-        <v>2.306177647143544E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03526433333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.105793</v>
-      </c>
-      <c r="I9">
-        <v>0.000356058877968489</v>
-      </c>
-      <c r="J9">
-        <v>0.000356058877968489</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.007121333333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.021364</v>
-      </c>
-      <c r="O9">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="P9">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="Q9">
-        <v>0.0002511290724444444</v>
-      </c>
-      <c r="R9">
-        <v>0.002260161652</v>
-      </c>
-      <c r="S9">
-        <v>7.77602086690972E-07</v>
-      </c>
-      <c r="T9">
-        <v>7.77602086690972E-07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H10">
-        <v>216.900745</v>
-      </c>
-      <c r="I10">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J10">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.7050016666666666</v>
-      </c>
-      <c r="N10">
-        <v>2.115005</v>
-      </c>
-      <c r="O10">
-        <v>0.2162043499394578</v>
-      </c>
-      <c r="P10">
-        <v>0.2162043499394578</v>
-      </c>
-      <c r="Q10">
-        <v>50.97179557541389</v>
-      </c>
-      <c r="R10">
-        <v>458.7461601787249</v>
-      </c>
-      <c r="S10">
-        <v>0.1578302910770948</v>
-      </c>
-      <c r="T10">
-        <v>0.1578302910770948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H11">
-        <v>216.900745</v>
-      </c>
-      <c r="I11">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J11">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.337487333333333</v>
-      </c>
-      <c r="N11">
-        <v>7.012461999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.716842176819984</v>
-      </c>
-      <c r="P11">
-        <v>0.716842176819984</v>
-      </c>
-      <c r="Q11">
-        <v>169.0009146760211</v>
-      </c>
-      <c r="R11">
-        <v>1521.00823208419</v>
-      </c>
-      <c r="S11">
-        <v>0.5232984880069155</v>
-      </c>
-      <c r="T11">
-        <v>0.5232984880069155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H12">
-        <v>216.900745</v>
-      </c>
-      <c r="I12">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J12">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.2112013333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.6336040000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.0647695589083904</v>
-      </c>
-      <c r="P12">
-        <v>0.06476955890839041</v>
-      </c>
-      <c r="Q12">
-        <v>15.26990884833111</v>
-      </c>
-      <c r="R12">
-        <v>137.42917963498</v>
-      </c>
-      <c r="S12">
-        <v>0.04728211221609952</v>
-      </c>
-      <c r="T12">
-        <v>0.04728211221609953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H13">
-        <v>216.900745</v>
-      </c>
-      <c r="I13">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J13">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.007121333333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.021364</v>
-      </c>
-      <c r="O13">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="P13">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="Q13">
-        <v>0.5148741684644443</v>
-      </c>
-      <c r="R13">
-        <v>4.633867516179999</v>
-      </c>
-      <c r="S13">
-        <v>0.001594268731549596</v>
-      </c>
-      <c r="T13">
-        <v>0.001594268731549596</v>
+        <v>0.07695307966029634</v>
       </c>
     </row>
   </sheetData>
